--- a/misBitacoras/Bitacora-Palazzo-Marcio-Diciembre-2024.xlsx
+++ b/misBitacoras/Bitacora-Palazzo-Marcio-Diciembre-2024.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitacora!$F$3:$F$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitacora!$F$6:$F$108</definedName>
     <definedName name="g">Bitacora!$J:$J</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1" fullPrecision="1"/>
@@ -312,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Día</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Desarrollo</t>
+  </si>
+  <si>
+    <t>pruebas unitarias</t>
   </si>
   <si>
     <t>Enero</t>
@@ -489,7 +495,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="10"/>
@@ -896,7 +904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1081,6 +1089,33 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
@@ -1394,7 +1429,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L572"/>
+  <dimension ref="A1:L575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
@@ -1482,41 +1517,100 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="6"/>
+      <c r="A3" s="67">
+        <v>31</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="67">
+        <v>2024</v>
+      </c>
+      <c r="D3" s="68">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="67" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="1"/>
+      <c r="A4" s="64">
+        <v>31</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="64">
+        <v>2024</v>
+      </c>
+      <c r="D4" s="65">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="64" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="1"/>
+      <c r="A5" s="61">
+        <v>31</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="61">
+        <v>2024</v>
+      </c>
+      <c r="D5" s="62">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="18"/>
@@ -1529,10 +1623,7 @@
       <c r="H6" s="44"/>
       <c r="I6" s="10"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="21" t="str">
-        <f ref="K6:K22" t="array">$J$165:$J$181</f>
-        <v>Raul Daszkal</v>
-      </c>
+      <c r="K6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="18"/>
@@ -1545,9 +1636,6 @@
       <c r="H7" s="44"/>
       <c r="I7" s="10"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="21" t="str">
-        <v>Santiago Lanzi</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="18"/>
@@ -1559,10 +1647,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="44"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="21" t="str">
-        <v>Laura Ozcoidi</v>
-      </c>
+      <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="18"/>
@@ -1576,10 +1661,11 @@
       <c r="I9" s="10"/>
       <c r="J9" s="1"/>
       <c r="K9" s="21" t="str">
-        <v>Gabriela Piro</v>
-      </c>
-    </row>
-    <row r="10" ht="14.45" customHeight="1">
+        <f ref="K9:K25" t="array">$J$168:$J$184</f>
+        <v>Raul Daszkal</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -1591,7 +1677,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="1"/>
       <c r="K10" s="21" t="str">
-        <v>Fernando Sottano</v>
+        <v>Santiago Lanzi</v>
       </c>
     </row>
     <row r="11">
@@ -1604,12 +1690,12 @@
       <c r="G11" s="22"/>
       <c r="H11" s="44"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="21" t="str">
-        <v>Bernardo Petriz</v>
-      </c>
-    </row>
-    <row r="12" ht="14.1" customHeight="1">
+        <v>Laura Ozcoidi</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1621,10 +1707,10 @@
       <c r="I12" s="10"/>
       <c r="J12" s="1"/>
       <c r="K12" s="21" t="str">
-        <v>Corina Fitzpatrick</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>Gabriela Piro</v>
+      </c>
+    </row>
+    <row r="13" ht="14.45" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1636,7 +1722,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="1"/>
       <c r="K13" s="21" t="str">
-        <v>Roberto Lo Bue</v>
+        <v>Fernando Sottano</v>
       </c>
     </row>
     <row r="14">
@@ -1651,10 +1737,10 @@
       <c r="I14" s="10"/>
       <c r="J14" s="1"/>
       <c r="K14" s="21" t="str">
-        <v>Ricardo Cavallin</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>Bernardo Petriz</v>
+      </c>
+    </row>
+    <row r="15" ht="14.1" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1666,7 +1752,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="1"/>
       <c r="K15" s="21" t="str">
-        <v>Ariel Cvjetkovic</v>
+        <v>Corina Fitzpatrick</v>
       </c>
     </row>
     <row r="16">
@@ -1679,9 +1765,9 @@
       <c r="G16" s="22"/>
       <c r="H16" s="44"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="30"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="21" t="str">
-        <v>Carlos Cernigoi</v>
+        <v>Roberto Lo Bue</v>
       </c>
     </row>
     <row r="17">
@@ -1694,9 +1780,9 @@
       <c r="G17" s="22"/>
       <c r="H17" s="44"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="30"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="21" t="str">
-        <v>Marcia Garcia</v>
+        <v>Ricardo Cavallin</v>
       </c>
     </row>
     <row r="18">
@@ -1709,12 +1795,12 @@
       <c r="G18" s="22"/>
       <c r="H18" s="44"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="30"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="21" t="str">
-        <v>Mariel Grimaldi</v>
-      </c>
-    </row>
-    <row r="19" ht="14.1" customHeight="1">
+        <v>Ariel Cvjetkovic</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -1726,10 +1812,10 @@
       <c r="I19" s="10"/>
       <c r="J19" s="30"/>
       <c r="K19" s="21" t="str">
-        <v>Matías Strappazzon</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
+        <v>Carlos Cernigoi</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -1741,10 +1827,10 @@
       <c r="I20" s="10"/>
       <c r="J20" s="30"/>
       <c r="K20" s="21" t="str">
-        <v>Luciano Carreras</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
+        <v>Marcia Garcia</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -1754,12 +1840,12 @@
       <c r="G21" s="22"/>
       <c r="H21" s="44"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="30"/>
       <c r="K21" s="21" t="str">
-        <v>Barbara Jorquera</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>Mariel Grimaldi</v>
+      </c>
+    </row>
+    <row r="22" ht="14.1" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -1769,12 +1855,12 @@
       <c r="G22" s="22"/>
       <c r="H22" s="44"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="21" t="str">
-        <v>Pablo Jimenez</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>Matías Strappazzon</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -1782,14 +1868,14 @@
       <c r="E23" s="21"/>
       <c r="F23" s="29"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="42"/>
+      <c r="H23" s="44"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="J23" s="30"/>
+      <c r="K23" s="21" t="str">
+        <v>Luciano Carreras</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -1797,9 +1883,12 @@
       <c r="E24" s="21"/>
       <c r="F24" s="29"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="42"/>
+      <c r="H24" s="44"/>
       <c r="I24" s="10"/>
       <c r="J24" s="1"/>
+      <c r="K24" s="21" t="str">
+        <v>Barbara Jorquera</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="18"/>
@@ -1809,13 +1898,27 @@
       <c r="E25" s="21"/>
       <c r="F25" s="29"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="42"/>
+      <c r="H25" s="44"/>
       <c r="I25" s="10"/>
       <c r="J25" s="1"/>
+      <c r="K25" s="21" t="str">
+        <v>Pablo Jimenez</v>
+      </c>
     </row>
     <row r="26">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="42"/>
       <c r="I26" s="10"/>
       <c r="J26" s="1"/>
+      <c r="K26" s="43" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="18"/>
@@ -1842,14 +1945,6 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="42"/>
       <c r="I29" s="10"/>
       <c r="J29" s="1"/>
     </row>
@@ -1914,6 +2009,7 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35">
+      <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="20"/>
@@ -1922,9 +2018,10 @@
       <c r="G35" s="22"/>
       <c r="H35" s="42"/>
       <c r="I35" s="10"/>
-      <c r="J35" s="30"/>
+      <c r="J35" s="1"/>
     </row>
     <row r="36">
+      <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="20"/>
@@ -1933,9 +2030,10 @@
       <c r="G36" s="22"/>
       <c r="H36" s="42"/>
       <c r="I36" s="10"/>
-      <c r="J36" s="30"/>
+      <c r="J36" s="1"/>
     </row>
     <row r="37">
+      <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="20"/>
@@ -1955,7 +2053,7 @@
       <c r="G38" s="22"/>
       <c r="H38" s="42"/>
       <c r="I38" s="10"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="30"/>
     </row>
     <row r="39">
       <c r="B39" s="19"/>
@@ -1964,9 +2062,9 @@
       <c r="E39" s="21"/>
       <c r="F39" s="29"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="5"/>
+      <c r="H39" s="42"/>
       <c r="I39" s="10"/>
-      <c r="J39" s="1"/>
+      <c r="J39" s="30"/>
     </row>
     <row r="40">
       <c r="B40" s="19"/>
@@ -1975,24 +2073,22 @@
       <c r="E40" s="21"/>
       <c r="F40" s="29"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="3"/>
+      <c r="H40" s="42"/>
       <c r="I40" s="10"/>
       <c r="J40" s="1"/>
     </row>
     <row r="41">
-      <c r="A41" s="18"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="20"/>
       <c r="E41" s="21"/>
       <c r="F41" s="29"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="5"/>
+      <c r="H41" s="42"/>
       <c r="I41" s="10"/>
       <c r="J41" s="1"/>
     </row>
     <row r="42">
-      <c r="A42" s="18"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="20"/>
@@ -2004,7 +2100,6 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43">
-      <c r="A43" s="18"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
       <c r="D43" s="20"/>
@@ -2073,7 +2168,7 @@
       <c r="G48" s="22"/>
       <c r="H48" s="5"/>
       <c r="I48" s="10"/>
-      <c r="J48" s="30"/>
+      <c r="J48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="18"/>
@@ -2083,9 +2178,9 @@
       <c r="E49" s="21"/>
       <c r="F49" s="29"/>
       <c r="G49" s="22"/>
-      <c r="H49" s="5"/>
+      <c r="H49" s="3"/>
       <c r="I49" s="10"/>
-      <c r="J49" s="30"/>
+      <c r="J49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="18"/>
@@ -2095,7 +2190,7 @@
       <c r="E50" s="21"/>
       <c r="F50" s="29"/>
       <c r="G50" s="22"/>
-      <c r="H50" s="3"/>
+      <c r="H50" s="5"/>
       <c r="I50" s="10"/>
       <c r="J50" s="1"/>
     </row>
@@ -2109,7 +2204,7 @@
       <c r="G51" s="22"/>
       <c r="H51" s="5"/>
       <c r="I51" s="10"/>
-      <c r="J51" s="1"/>
+      <c r="J51" s="30"/>
     </row>
     <row r="52">
       <c r="A52" s="18"/>
@@ -2121,7 +2216,7 @@
       <c r="G52" s="22"/>
       <c r="H52" s="5"/>
       <c r="I52" s="10"/>
-      <c r="J52" s="1"/>
+      <c r="J52" s="30"/>
     </row>
     <row r="53">
       <c r="A53" s="18"/>
@@ -2131,7 +2226,7 @@
       <c r="E53" s="21"/>
       <c r="F53" s="29"/>
       <c r="G53" s="22"/>
-      <c r="H53" s="5"/>
+      <c r="H53" s="3"/>
       <c r="I53" s="10"/>
       <c r="J53" s="1"/>
     </row>
@@ -2143,7 +2238,7 @@
       <c r="E54" s="21"/>
       <c r="F54" s="29"/>
       <c r="G54" s="22"/>
-      <c r="H54" s="3"/>
+      <c r="H54" s="5"/>
       <c r="I54" s="10"/>
       <c r="J54" s="1"/>
     </row>
@@ -2215,7 +2310,7 @@
       <c r="E60" s="21"/>
       <c r="F60" s="29"/>
       <c r="G60" s="22"/>
-      <c r="H60" s="5"/>
+      <c r="H60" s="3"/>
       <c r="I60" s="10"/>
       <c r="J60" s="1"/>
     </row>
@@ -2239,7 +2334,7 @@
       <c r="E62" s="21"/>
       <c r="F62" s="29"/>
       <c r="G62" s="22"/>
-      <c r="H62" s="3"/>
+      <c r="H62" s="5"/>
       <c r="I62" s="10"/>
       <c r="J62" s="1"/>
     </row>
@@ -2383,7 +2478,7 @@
       <c r="E74" s="21"/>
       <c r="F74" s="29"/>
       <c r="G74" s="22"/>
-      <c r="H74" s="5"/>
+      <c r="H74" s="3"/>
       <c r="I74" s="10"/>
       <c r="J74" s="1"/>
     </row>
@@ -2395,7 +2490,7 @@
       <c r="E75" s="21"/>
       <c r="F75" s="29"/>
       <c r="G75" s="22"/>
-      <c r="H75" s="3"/>
+      <c r="H75" s="5"/>
       <c r="I75" s="10"/>
       <c r="J75" s="1"/>
     </row>
@@ -2407,7 +2502,7 @@
       <c r="E76" s="21"/>
       <c r="F76" s="29"/>
       <c r="G76" s="22"/>
-      <c r="H76" s="3"/>
+      <c r="H76" s="5"/>
       <c r="I76" s="10"/>
       <c r="J76" s="1"/>
     </row>
@@ -2431,7 +2526,7 @@
       <c r="E78" s="21"/>
       <c r="F78" s="29"/>
       <c r="G78" s="22"/>
-      <c r="H78" s="5"/>
+      <c r="H78" s="3"/>
       <c r="I78" s="10"/>
       <c r="J78" s="1"/>
     </row>
@@ -2443,7 +2538,7 @@
       <c r="E79" s="21"/>
       <c r="F79" s="29"/>
       <c r="G79" s="22"/>
-      <c r="H79" s="5"/>
+      <c r="H79" s="3"/>
       <c r="I79" s="10"/>
       <c r="J79" s="1"/>
     </row>
@@ -2515,7 +2610,7 @@
       <c r="E85" s="21"/>
       <c r="F85" s="29"/>
       <c r="G85" s="22"/>
-      <c r="H85" s="3"/>
+      <c r="H85" s="5"/>
       <c r="I85" s="10"/>
       <c r="J85" s="1"/>
     </row>
@@ -2551,7 +2646,7 @@
       <c r="E88" s="21"/>
       <c r="F88" s="29"/>
       <c r="G88" s="22"/>
-      <c r="H88" s="5"/>
+      <c r="H88" s="3"/>
       <c r="I88" s="10"/>
       <c r="J88" s="1"/>
     </row>
@@ -2563,7 +2658,7 @@
       <c r="E89" s="21"/>
       <c r="F89" s="29"/>
       <c r="G89" s="22"/>
-      <c r="H89" s="3"/>
+      <c r="H89" s="5"/>
       <c r="I89" s="10"/>
       <c r="J89" s="1"/>
     </row>
@@ -2587,7 +2682,7 @@
       <c r="E91" s="21"/>
       <c r="F91" s="29"/>
       <c r="G91" s="22"/>
-      <c r="H91" s="3"/>
+      <c r="H91" s="5"/>
       <c r="I91" s="10"/>
       <c r="J91" s="1"/>
     </row>
@@ -2599,7 +2694,7 @@
       <c r="E92" s="21"/>
       <c r="F92" s="29"/>
       <c r="G92" s="22"/>
-      <c r="H92" s="5"/>
+      <c r="H92" s="3"/>
       <c r="I92" s="10"/>
       <c r="J92" s="1"/>
     </row>
@@ -2623,7 +2718,7 @@
       <c r="E94" s="21"/>
       <c r="F94" s="29"/>
       <c r="G94" s="22"/>
-      <c r="H94" s="5"/>
+      <c r="H94" s="3"/>
       <c r="I94" s="10"/>
       <c r="J94" s="1"/>
     </row>
@@ -2647,7 +2742,7 @@
       <c r="E96" s="21"/>
       <c r="F96" s="29"/>
       <c r="G96" s="22"/>
-      <c r="H96" s="3"/>
+      <c r="H96" s="5"/>
       <c r="I96" s="10"/>
       <c r="J96" s="1"/>
     </row>
@@ -2659,7 +2754,7 @@
       <c r="E97" s="21"/>
       <c r="F97" s="29"/>
       <c r="G97" s="22"/>
-      <c r="H97" s="3"/>
+      <c r="H97" s="5"/>
       <c r="I97" s="10"/>
       <c r="J97" s="1"/>
     </row>
@@ -2683,7 +2778,7 @@
       <c r="E99" s="21"/>
       <c r="F99" s="29"/>
       <c r="G99" s="22"/>
-      <c r="H99" s="5"/>
+      <c r="H99" s="3"/>
       <c r="I99" s="10"/>
       <c r="J99" s="1"/>
     </row>
@@ -2719,7 +2814,7 @@
       <c r="E102" s="21"/>
       <c r="F102" s="29"/>
       <c r="G102" s="22"/>
-      <c r="H102" s="3"/>
+      <c r="H102" s="5"/>
       <c r="I102" s="10"/>
       <c r="J102" s="1"/>
     </row>
@@ -2743,7 +2838,7 @@
       <c r="E104" s="21"/>
       <c r="F104" s="29"/>
       <c r="G104" s="22"/>
-      <c r="H104" s="3"/>
+      <c r="H104" s="5"/>
       <c r="I104" s="10"/>
       <c r="J104" s="1"/>
     </row>
@@ -2767,7 +2862,7 @@
       <c r="E106" s="21"/>
       <c r="F106" s="29"/>
       <c r="G106" s="22"/>
-      <c r="H106" s="5"/>
+      <c r="H106" s="3"/>
       <c r="I106" s="10"/>
       <c r="J106" s="1"/>
     </row>
@@ -2789,105 +2884,108 @@
       <c r="C108" s="19"/>
       <c r="D108" s="20"/>
       <c r="E108" s="21"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="39"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="10"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" ht="13.5">
+    <row r="109">
       <c r="A109" s="18"/>
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
       <c r="D109" s="20"/>
       <c r="E109" s="21"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="11"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="10"/>
       <c r="J109" s="1"/>
     </row>
     <row r="110">
       <c r="A110" s="18"/>
       <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
       <c r="D110" s="20"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="40"/>
-    </row>
-    <row r="111" ht="12.75" customHeight="1">
+      <c r="E110" s="21"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111">
       <c r="A111" s="18"/>
       <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
       <c r="D111" s="20"/>
-      <c r="I111" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J111" s="2"/>
-    </row>
-    <row r="112" hidden="1">
+      <c r="E111" s="21"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="39"/>
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" ht="13.5">
       <c r="A112" s="18"/>
       <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
       <c r="D112" s="20"/>
-      <c r="I112" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J112" s="23"/>
-      <c r="K112" s="6"/>
-    </row>
-    <row r="113" hidden="1">
+      <c r="E112" s="21"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113">
       <c r="A113" s="18"/>
       <c r="B113" s="19"/>
       <c r="D113" s="20"/>
-      <c r="I113" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J113" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="K113" s="6"/>
-    </row>
-    <row r="114" hidden="1">
+      <c r="H113" s="8"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="40"/>
+    </row>
+    <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="18"/>
       <c r="B114" s="19"/>
       <c r="D114" s="20"/>
-      <c r="I114" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J114" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="I114" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J114" s="2"/>
     </row>
     <row r="115" hidden="1">
       <c r="A115" s="18"/>
       <c r="B115" s="19"/>
       <c r="D115" s="20"/>
       <c r="I115" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J115" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J115" s="23"/>
+      <c r="K115" s="6"/>
     </row>
     <row r="116" hidden="1">
       <c r="A116" s="18"/>
       <c r="B116" s="19"/>
       <c r="D116" s="20"/>
       <c r="I116" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J116" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J116" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K116" s="6"/>
     </row>
     <row r="117" hidden="1">
-      <c r="A117" s="24"/>
+      <c r="A117" s="18"/>
       <c r="B117" s="19"/>
       <c r="D117" s="20"/>
       <c r="I117" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" hidden="1">
@@ -2895,10 +2993,10 @@
       <c r="B118" s="19"/>
       <c r="D118" s="20"/>
       <c r="I118" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" hidden="1">
@@ -2906,549 +3004,550 @@
       <c r="B119" s="19"/>
       <c r="D119" s="20"/>
       <c r="I119" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" hidden="1">
-      <c r="A120" s="18"/>
+      <c r="A120" s="24"/>
       <c r="B120" s="19"/>
       <c r="D120" s="20"/>
       <c r="I120" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" hidden="1">
-      <c r="A121" s="24"/>
+      <c r="A121" s="18"/>
       <c r="B121" s="19"/>
       <c r="D121" s="20"/>
       <c r="I121" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="122" hidden="1" ht="13.5">
-      <c r="A122" s="41"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" hidden="1">
+      <c r="A122" s="18"/>
       <c r="B122" s="19"/>
       <c r="D122" s="20"/>
       <c r="I122" s="8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" hidden="1">
+      <c r="A123" s="18"/>
       <c r="B123" s="19"/>
       <c r="D123" s="20"/>
+      <c r="I123" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J123" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" hidden="1">
+      <c r="A124" s="24"/>
       <c r="B124" s="19"/>
       <c r="D124" s="20"/>
       <c r="I124" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" hidden="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" hidden="1" ht="13.5">
+      <c r="A125" s="41"/>
       <c r="B125" s="19"/>
       <c r="D125" s="20"/>
-      <c r="I125" s="12">
-        <v>1</v>
+      <c r="I125" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="126" hidden="1">
       <c r="B126" s="19"/>
       <c r="D126" s="20"/>
-      <c r="I126" s="12">
-        <v>2</v>
-      </c>
       <c r="J126" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" hidden="1">
       <c r="B127" s="19"/>
-      <c r="D127" s="35"/>
-      <c r="I127" s="12">
-        <v>3</v>
-      </c>
-      <c r="J127" s="28">
+      <c r="D127" s="20"/>
+      <c r="I127" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" hidden="1">
+      <c r="B128" s="19"/>
+      <c r="D128" s="20"/>
+      <c r="I128" s="12">
         <v>1</v>
-      </c>
-    </row>
-    <row r="128" hidden="1" ht="13.5">
-      <c r="B128" s="19"/>
-      <c r="D128" s="25"/>
-      <c r="I128" s="12">
-        <v>4</v>
-      </c>
-      <c r="J128" s="28">
-        <v>2</v>
       </c>
     </row>
     <row r="129" hidden="1">
       <c r="B129" s="19"/>
+      <c r="D129" s="20"/>
       <c r="I129" s="12">
+        <v>2</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" hidden="1">
+      <c r="B130" s="19"/>
+      <c r="D130" s="35"/>
+      <c r="I130" s="12">
+        <v>3</v>
+      </c>
+      <c r="J130" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" hidden="1" ht="13.5">
+      <c r="B131" s="19"/>
+      <c r="D131" s="25"/>
+      <c r="I131" s="12">
+        <v>4</v>
+      </c>
+      <c r="J131" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" hidden="1">
+      <c r="B132" s="19"/>
+      <c r="I132" s="12">
         <v>5</v>
       </c>
-      <c r="J129" s="28">
+      <c r="J132" s="28">
         <v>3</v>
-      </c>
-    </row>
-    <row r="130" hidden="1">
-      <c r="I130" s="12">
-        <v>6</v>
-      </c>
-      <c r="J130" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" hidden="1">
-      <c r="I131" s="12">
-        <v>7</v>
-      </c>
-      <c r="J131" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" hidden="1">
-      <c r="I132" s="12">
-        <v>8</v>
-      </c>
-      <c r="J132" s="28">
-        <v>6</v>
       </c>
     </row>
     <row r="133" hidden="1">
       <c r="I133" s="12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J133" s="28">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" hidden="1">
       <c r="I134" s="12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J134" s="28">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" hidden="1">
       <c r="I135" s="12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J135" s="28">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" hidden="1">
       <c r="I136" s="12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J136" s="28">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" hidden="1">
       <c r="I137" s="12">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J137" s="28">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" hidden="1">
       <c r="I138" s="12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J138" s="28">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" hidden="1">
       <c r="I139" s="12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J139" s="28">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" hidden="1">
       <c r="I140" s="12">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J140" s="28">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" hidden="1">
       <c r="I141" s="12">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J141" s="28">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" hidden="1">
       <c r="I142" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J142" s="28">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" hidden="1">
       <c r="I143" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J143" s="28">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" hidden="1">
       <c r="I144" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J144" s="28">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" hidden="1">
       <c r="I145" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J145" s="28">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" hidden="1">
       <c r="I146" s="12">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J146" s="28">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" hidden="1">
       <c r="I147" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J147" s="28">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" hidden="1">
       <c r="I148" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J148" s="28">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" hidden="1">
       <c r="I149" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J149" s="28">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" hidden="1">
       <c r="I150" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J150" s="28">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="151" hidden="1">
       <c r="I151" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J151" s="28">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152" hidden="1">
       <c r="I152" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J152" s="28">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153" hidden="1">
       <c r="I153" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J153" s="28">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" hidden="1">
       <c r="I154" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J154" s="28">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155" hidden="1">
       <c r="I155" s="12">
+        <v>28</v>
+      </c>
+      <c r="J155" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" hidden="1">
+      <c r="I156" s="12">
+        <v>29</v>
+      </c>
+      <c r="J156" s="28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" hidden="1">
+      <c r="I157" s="12">
+        <v>30</v>
+      </c>
+      <c r="J157" s="28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="158" hidden="1">
+      <c r="I158" s="12">
         <v>31</v>
       </c>
-      <c r="J155" s="28">
+      <c r="J158" s="28">
         <v>29</v>
       </c>
     </row>
-    <row r="156" hidden="1">
-      <c r="J156" s="28">
+    <row r="159" hidden="1">
+      <c r="J159" s="28">
         <v>30</v>
       </c>
     </row>
-    <row r="157" hidden="1">
-      <c r="I157" s="8" t="s">
+    <row r="160" hidden="1">
+      <c r="I160" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J157" s="28">
+      <c r="J160" s="28">
         <v>31</v>
-      </c>
-    </row>
-    <row r="158" hidden="1">
-      <c r="I158" s="6">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="159" hidden="1">
-      <c r="I159" s="6">
-        <v>2018</v>
-      </c>
-      <c r="J159" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" hidden="1">
-      <c r="I160" s="6">
-        <v>2019</v>
-      </c>
-      <c r="J160" s="6">
-        <v>2017</v>
       </c>
     </row>
     <row r="161" hidden="1">
       <c r="I161" s="6">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="162" hidden="1">
+      <c r="I162" s="6">
+        <v>2018</v>
+      </c>
+      <c r="J162" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" hidden="1">
+      <c r="I163" s="6">
+        <v>2019</v>
+      </c>
+      <c r="J163" s="6">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="164" hidden="1">
+      <c r="I164" s="6">
         <v>2020</v>
       </c>
-      <c r="J161" s="6">
+      <c r="J164" s="6">
         <v>2018</v>
-      </c>
-    </row>
-    <row r="162" hidden="1">
-      <c r="I162" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J162" s="6">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="163" hidden="1">
-      <c r="I163" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J163" s="6">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="164" hidden="1">
-      <c r="I164" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J164" s="23" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="165" hidden="1">
       <c r="I165" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J165" s="6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="166" hidden="1">
+      <c r="I166" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J165" s="23" t="s">
+      <c r="J166" s="6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="167" hidden="1">
+      <c r="I167" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J167" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="166" hidden="1">
-      <c r="I166" s="8" t="s">
+    <row r="168" hidden="1">
+      <c r="I168" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J168" s="23" t="s">
         <v>29</v>
-      </c>
-      <c r="J166" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="167" hidden="1">
-      <c r="I167" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J167" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="168" hidden="1">
-      <c r="I168" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J168" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="169" hidden="1">
       <c r="I169" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J169" s="23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="170" hidden="1">
       <c r="I170" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J170" s="23" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="J170" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="171" hidden="1">
       <c r="I171" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J171" s="23" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="J171" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="172" hidden="1">
       <c r="I172" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J172" s="32" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="J172" s="23" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="173" hidden="1">
       <c r="I173" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J173" s="23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="174" hidden="1">
       <c r="I174" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J174" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="J174" s="23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="175" hidden="1">
       <c r="I175" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J175" s="23" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="J175" s="32" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="176" hidden="1">
       <c r="I176" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J176" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="177" hidden="1">
+      <c r="I177" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J177" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="178" hidden="1">
+      <c r="I178" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J176" s="33" t="s">
+      <c r="J178" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="177" hidden="1" ht="25.5">
-      <c r="I177" s="14" t="s">
+    <row r="179" hidden="1">
+      <c r="I179" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J177" s="33" t="s">
+      <c r="J179" s="33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="178" hidden="1">
-      <c r="J178" s="33" t="s">
+    <row r="180" hidden="1" ht="25.5">
+      <c r="I180" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="179" hidden="1">
-      <c r="J179" s="6" t="s">
+      <c r="J180" s="33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="180" hidden="1">
-      <c r="J180" s="6" t="s">
+    <row r="181" hidden="1">
+      <c r="J181" s="33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="181" hidden="1">
-      <c r="J181" s="6" t="s">
+    <row r="182" hidden="1">
+      <c r="J182" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="545">
-      <c r="H545" s="46"/>
-    </row>
-    <row r="546">
-      <c r="C546" s="46"/>
-      <c r="D546" s="49"/>
-      <c r="E546" s="46"/>
-      <c r="F546" s="46"/>
-      <c r="G546" s="51"/>
-      <c r="H546" s="50"/>
-      <c r="I546" s="46"/>
-    </row>
-    <row r="547">
-      <c r="B547" s="49"/>
-      <c r="C547" s="56"/>
-      <c r="D547" s="49"/>
-      <c r="E547" s="55"/>
-      <c r="F547" s="50"/>
-      <c r="G547" s="51"/>
-      <c r="H547" s="50"/>
-      <c r="I547" s="48"/>
+    <row r="183" hidden="1">
+      <c r="J183" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="184" hidden="1">
+      <c r="J184" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="548">
-      <c r="B548" s="49"/>
-      <c r="C548" s="56"/>
-      <c r="D548" s="49"/>
-      <c r="E548" s="55"/>
-      <c r="F548" s="50"/>
-      <c r="G548" s="54"/>
-      <c r="H548" s="52"/>
-      <c r="I548" s="48"/>
-      <c r="J548" s="46"/>
+      <c r="H548" s="46"/>
     </row>
     <row r="549">
-      <c r="B549" s="49"/>
-      <c r="C549" s="56"/>
+      <c r="C549" s="46"/>
       <c r="D549" s="49"/>
-      <c r="E549" s="55"/>
-      <c r="F549" s="50"/>
-      <c r="G549" s="54"/>
+      <c r="E549" s="46"/>
+      <c r="F549" s="46"/>
+      <c r="G549" s="51"/>
       <c r="H549" s="50"/>
-      <c r="I549" s="48"/>
-      <c r="J549" s="50"/>
+      <c r="I549" s="46"/>
     </row>
     <row r="550">
       <c r="B550" s="49"/>
@@ -3456,10 +3555,9 @@
       <c r="D550" s="49"/>
       <c r="E550" s="55"/>
       <c r="F550" s="50"/>
-      <c r="G550" s="54"/>
+      <c r="G550" s="51"/>
       <c r="H550" s="50"/>
       <c r="I550" s="48"/>
-      <c r="J550" s="45"/>
     </row>
     <row r="551">
       <c r="B551" s="49"/>
@@ -3468,10 +3566,9 @@
       <c r="E551" s="55"/>
       <c r="F551" s="50"/>
       <c r="G551" s="54"/>
-      <c r="H551" s="50"/>
+      <c r="H551" s="52"/>
       <c r="I551" s="48"/>
-      <c r="J551" s="50"/>
-      <c r="L551" s="47"/>
+      <c r="J551" s="46"/>
     </row>
     <row r="552">
       <c r="B552" s="49"/>
@@ -3480,31 +3577,56 @@
       <c r="E552" s="55"/>
       <c r="F552" s="50"/>
       <c r="G552" s="54"/>
-      <c r="H552" s="53"/>
+      <c r="H552" s="50"/>
       <c r="I552" s="48"/>
       <c r="J552" s="50"/>
-      <c r="L552" s="47"/>
     </row>
     <row r="553">
-      <c r="J553" s="50"/>
-      <c r="L553" s="47"/>
+      <c r="B553" s="49"/>
+      <c r="C553" s="56"/>
+      <c r="D553" s="49"/>
+      <c r="E553" s="55"/>
+      <c r="F553" s="50"/>
+      <c r="G553" s="54"/>
+      <c r="H553" s="50"/>
+      <c r="I553" s="48"/>
+      <c r="J553" s="45"/>
     </row>
     <row r="554">
-      <c r="I554" s="49"/>
-      <c r="J554" s="45"/>
+      <c r="B554" s="49"/>
+      <c r="C554" s="56"/>
+      <c r="D554" s="49"/>
+      <c r="E554" s="55"/>
+      <c r="F554" s="50"/>
+      <c r="G554" s="54"/>
+      <c r="H554" s="50"/>
+      <c r="I554" s="48"/>
+      <c r="J554" s="50"/>
       <c r="L554" s="47"/>
     </row>
-    <row r="558">
-      <c r="A558" s="46"/>
-    </row>
-    <row r="559">
-      <c r="A559" s="57"/>
-    </row>
-    <row r="560">
-      <c r="A560" s="57"/>
+    <row r="555">
+      <c r="B555" s="49"/>
+      <c r="C555" s="56"/>
+      <c r="D555" s="49"/>
+      <c r="E555" s="55"/>
+      <c r="F555" s="50"/>
+      <c r="G555" s="54"/>
+      <c r="H555" s="53"/>
+      <c r="I555" s="48"/>
+      <c r="J555" s="50"/>
+      <c r="L555" s="47"/>
+    </row>
+    <row r="556">
+      <c r="J556" s="50"/>
+      <c r="L556" s="47"/>
+    </row>
+    <row r="557">
+      <c r="I557" s="49"/>
+      <c r="J557" s="45"/>
+      <c r="L557" s="47"/>
     </row>
     <row r="561">
-      <c r="A561" s="57"/>
+      <c r="A561" s="46"/>
     </row>
     <row r="562">
       <c r="A562" s="57"/>
@@ -3516,28 +3638,19 @@
       <c r="A564" s="57"/>
     </row>
     <row r="565">
-      <c r="D565" s="46"/>
+      <c r="A565" s="57"/>
     </row>
     <row r="566">
-      <c r="B566" s="46"/>
-      <c r="C566" s="49"/>
-      <c r="D566" s="58"/>
+      <c r="A566" s="57"/>
     </row>
     <row r="567">
-      <c r="A567" s="49"/>
-      <c r="B567" s="56"/>
-      <c r="C567" s="49"/>
-      <c r="D567" s="58"/>
+      <c r="A567" s="57"/>
     </row>
     <row r="568">
-      <c r="A568" s="49"/>
-      <c r="B568" s="56"/>
-      <c r="C568" s="49"/>
-      <c r="D568" s="58"/>
+      <c r="D568" s="46"/>
     </row>
     <row r="569">
-      <c r="A569" s="49"/>
-      <c r="B569" s="56"/>
+      <c r="B569" s="46"/>
       <c r="C569" s="49"/>
       <c r="D569" s="58"/>
     </row>
@@ -3556,55 +3669,73 @@
     <row r="572">
       <c r="A572" s="49"/>
       <c r="B572" s="56"/>
+      <c r="C572" s="49"/>
+      <c r="D572" s="58"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="49"/>
+      <c r="B573" s="56"/>
+      <c r="C573" s="49"/>
+      <c r="D573" s="58"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="49"/>
+      <c r="B574" s="56"/>
+      <c r="C574" s="49"/>
+      <c r="D574" s="58"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="49"/>
+      <c r="B575" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="15">
-    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" errorTitle="Se puede Ingresar hasta 255 Cara" sqref="H65 H71 H68 H43 H40 H102:H105 H107:H108 H57 H50 H54 H96:H97 H75:H76 H62 H85 H91 H89 H46 H100 H550 H546:H547 H27:H38 H3:H25" xr:uid="{F5825974-80CE-455C-84D8-F7BE3E654DF4}">
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" errorTitle="Se puede Ingresar hasta 255 Cara" sqref="H68 H74 H71 H46 H43 H105:H108 H110:H111 H60 H53 H57 H99:H100 H78:H79 H65 H88 H94 H92 H49 H103 H553 H549:H550 H30:H41 H6:H28" xr:uid="{F5825974-80CE-455C-84D8-F7BE3E654DF4}">
       <formula1>0</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" sqref="H549 H551" xr:uid="{E34F7B55-2604-4E3B-9188-375924DD1C77}">
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" sqref="H552 H554" xr:uid="{E34F7B55-2604-4E3B-9188-375924DD1C77}">
       <formula1>0</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Observaciones" error="Usted se ha Excedido en la longitud del texto permitido" promptTitle="Observaciones" prompt="Ingrese las Observaciones" sqref="J549:J554 J3:J111" xr:uid="{8F96A1B8-6287-4FFC-87E9-3844D86FA81A}">
+    <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Observaciones" error="Usted se ha Excedido en la longitud del texto permitido" promptTitle="Observaciones" prompt="Ingrese las Observaciones" sqref="J552:J557 J6:J114" xr:uid="{8F96A1B8-6287-4FFC-87E9-3844D86FA81A}">
       <formula1>0</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dia Invalido" sqref="A559:A564 A41:A121 A3:A25 A27:A34" xr:uid="{F2B0999D-1E18-4A19-825E-7929206565A4}">
-      <formula1>$J$127:$J$157</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dia Invalido" sqref="A562:A567 A44:A124 A6:A28 A30:A37" xr:uid="{F2B0999D-1E18-4A19-825E-7929206565A4}">
+      <formula1>$J$130:$J$160</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Mes" error="Mes Invalido" sqref="B567:B572" xr:uid="{B413B91D-9694-4743-A4C1-4F139B85A4C6}">
-      <formula1>$J$113:$J$124</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Mes" error="Mes Invalido" sqref="B570:B575" xr:uid="{B413B91D-9694-4743-A4C1-4F139B85A4C6}">
+      <formula1>$J$116:$J$127</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Año" error="Año Invalido" sqref="C547:C552" xr:uid="{95EF660E-7B26-4807-A3E7-D302A96870BA}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Año" error="Año Invalido" sqref="C550:C555" xr:uid="{95EF660E-7B26-4807-A3E7-D302A96870BA}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Modulo" error="Usted Ingreso un Modulo no Habilitado" promptTitle="Modulo" prompt="Ingrese Modulo" sqref="I547:I552 I3:I109" xr:uid="{A9E0049F-F0D2-496D-9785-F3CEDF50EFAB}">
-      <formula1>$I$167:$I$177</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Modulo" error="Usted Ingreso un Modulo no Habilitado" promptTitle="Modulo" prompt="Ingrese Modulo" sqref="I550:I555 I6:I112" xr:uid="{A9E0049F-F0D2-496D-9785-F3CEDF50EFAB}">
+      <formula1>$I$170:$I$180</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Banco" error="Opcion Invalida: Ingrese SJ, SC  ó UN" promptTitle="Banco" prompt="Ingrese SJ, SC,NB, UN" sqref="F547:F552" xr:uid="{F88EDDEE-F3FD-43A2-A461-734D3DB3A8D7}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Banco" error="Opcion Invalida: Ingrese SJ, SC  ó UN" promptTitle="Banco" prompt="Ingrese SJ, SC,NB, UN" sqref="F550:F555" xr:uid="{F88EDDEE-F3FD-43A2-A461-734D3DB3A8D7}">
       <formula1>"SJ,SC,NB,UN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Tipo de Tarea" error="El dato a Ingresar debe ser:MC-D; MC-S;DE-D;DE-S" promptTitle="Tipo de Tarea" sqref="G547:G552" xr:uid="{52F6A8EA-A85B-435D-B5CA-B707863EAE52}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Tipo de Tarea" error="El dato a Ingresar debe ser:MC-D; MC-S;DE-D;DE-S" promptTitle="Tipo de Tarea" sqref="G550:G555" xr:uid="{52F6A8EA-A85B-435D-B5CA-B707863EAE52}">
       <formula1>"MC-NORM,MC-APLIC,DE-NORM,DE-APLIC,SO-NORM,SO-APLIC,OT-OT"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dia Invalido" sqref="A1" xr:uid="{438DB132-3399-4250-B9F8-8787356BAADA}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Recurso" error="Usted Ingreso un recurso no Habilitado" promptTitle="Recurso" prompt="Ingrese Nombre y Apellido" sqref="E547:E552" xr:uid="{C4823C4E-BA08-43EB-8A2F-BF1305A9865D}">
-      <formula1>$J$165:$J$168</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Recurso" error="Usted Ingreso un recurso no Habilitado" promptTitle="Recurso" prompt="Ingrese Nombre y Apellido" sqref="E550:E555" xr:uid="{C4823C4E-BA08-43EB-8A2F-BF1305A9865D}">
+      <formula1>$J$168:$J$171</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Recurso" error="Usted Ingreso un recurso no Habilitado" promptTitle="Recurso" prompt="Ingrese Nombre y Apellido" sqref="K6:K22" xr:uid="{D9042641-C80E-42EB-9F19-D3258B0D6381}">
-      <formula1>$J$165:$J$181</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Recurso" error="Usted Ingreso un recurso no Habilitado" promptTitle="Recurso" prompt="Ingrese Nombre y Apellido" sqref="K9:K25" xr:uid="{D9042641-C80E-42EB-9F19-D3258B0D6381}">
+      <formula1>$J$168:$J$184</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Tipo de Tarea" error="El dato a Ingresar debe ser:MC-D; MC-S;DE-D;DE-S" promptTitle="Tipo de Tarea" sqref="G27:G109 G3:G25" xr:uid="{E3275628-3916-43AC-96D5-17B15FDBB3D8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Tipo de Tarea" error="El dato a Ingresar debe ser:MC-D; MC-S;DE-D;DE-S" promptTitle="Tipo de Tarea" sqref="G30:G112 G6:G28" xr:uid="{E3275628-3916-43AC-96D5-17B15FDBB3D8}">
       <formula1>"MC-NORM,MC-APLIC,DE-NORM,DE-APLIC,ASIST-PROD,ASIST-TEST,ASIST-REQ,ASIST-TEC,OT-OT"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Banco" error="Opcion Invalida: Ingrese SJ, SC, NB, UN  ó MI" promptTitle="Banco" prompt="Ingrese SJ, SC,NB, UN, MI" sqref="F27:F109 F3:F25" xr:uid="{CAA3C94B-92B8-498A-9120-559DAE3C27F7}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Banco" error="Opcion Invalida: Ingrese SJ, SC, NB, UN  ó MI" promptTitle="Banco" prompt="Ingrese SJ, SC,NB, UN, MI" sqref="F30:F112 F6:F28" xr:uid="{CAA3C94B-92B8-498A-9120-559DAE3C27F7}">
       <formula1>"SJ,SC,NB,UN,MI"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Recurso" error="Usted Ingreso un recurso no Habilitado" promptTitle="Recurso" prompt="Ingrese Nombre y Apellido" sqref="E27:E109 E3:E25" xr:uid="{BBA51D14-D2EF-4F82-B493-0083781A300B}">
-      <formula1>$K$6:$K$23</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Recurso" error="Usted Ingreso un recurso no Habilitado" promptTitle="Recurso" prompt="Ingrese Nombre y Apellido" sqref="E30:E112 E6:E28" xr:uid="{BBA51D14-D2EF-4F82-B493-0083781A300B}">
+      <formula1>$K$9:$K$26</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
